--- a/PaperAppendices/ARDiff/assets/NonEquivalentResults.xlsx
+++ b/PaperAppendices/ARDiff/assets/NonEquivalentResults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar1/Documents/Projects/Equivalence Checking/results/MainFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar1/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2596AB-8FE6-6D45-B33D-03BE716F1987}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5F20D4-E4E6-B243-A0F6-F1147EA9B50B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{8B77D404-D883-304A-93B9-C70AF0CD0F67}"/>
+    <workbookView xWindow="-19700" yWindow="-1780" windowWidth="19600" windowHeight="21100" activeTab="1" xr2:uid="{8B77D404-D883-304A-93B9-C70AF0CD0F67}"/>
   </bookViews>
   <sheets>
     <sheet name="Neq" sheetId="18" r:id="rId1"/>
@@ -342,7 +342,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -595,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -702,13 +702,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -723,8 +735,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -740,9 +752,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1178,18 +1187,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A6A66-DBA9-4641-861A-191CFE244154}">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71:G71"/>
+    <sheetView topLeftCell="A51" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="8" max="12" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17">
+    <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>69</v>
       </c>
@@ -1212,8 +1222,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="51" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -1235,8 +1245,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="48"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="52"/>
       <c r="B3" s="26" t="s">
         <v>71</v>
       </c>
@@ -1256,8 +1266,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="48"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="52"/>
       <c r="B4" s="26" t="s">
         <v>72</v>
       </c>
@@ -1277,8 +1287,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="48"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="52"/>
       <c r="B5" s="26" t="s">
         <v>73</v>
       </c>
@@ -1298,8 +1308,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="48"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="52"/>
       <c r="B6" s="26" t="s">
         <v>74</v>
       </c>
@@ -1319,8 +1329,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="48"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="52"/>
       <c r="B7" s="26" t="s">
         <v>75</v>
       </c>
@@ -1340,8 +1350,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="48"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="52"/>
       <c r="B8" s="26" t="s">
         <v>76</v>
       </c>
@@ -1361,8 +1371,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="48"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="52"/>
       <c r="B9" s="26" t="s">
         <v>77</v>
       </c>
@@ -1382,8 +1392,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="48"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="52"/>
       <c r="B10" s="26" t="s">
         <v>78</v>
       </c>
@@ -1403,8 +1413,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="48"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="52"/>
       <c r="B11" s="26" t="s">
         <v>79</v>
       </c>
@@ -1424,8 +1434,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="48"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="52"/>
       <c r="B12" s="26" t="s">
         <v>80</v>
       </c>
@@ -1445,8 +1455,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="48"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="52"/>
       <c r="B13" s="26" t="s">
         <v>81</v>
       </c>
@@ -1466,8 +1476,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="49" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="48" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -1489,8 +1499,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="46"/>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="50"/>
       <c r="B15" s="28" t="s">
         <v>84</v>
       </c>
@@ -1510,8 +1520,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="45" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="49" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="29" t="s">
@@ -1532,14 +1542,19 @@
       <c r="G16" s="18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="45"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="49"/>
       <c r="B17" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>5</v>
+      <c r="C17" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="D17" s="29" t="s">
         <v>6</v>
@@ -1554,8 +1569,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="45"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="49"/>
       <c r="B18" s="29" t="s">
         <v>18</v>
       </c>
@@ -1575,8 +1590,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="45"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="49"/>
       <c r="B19" s="29" t="s">
         <v>19</v>
       </c>
@@ -1596,8 +1611,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="45"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="49"/>
       <c r="B20" s="29" t="s">
         <v>20</v>
       </c>
@@ -1617,8 +1632,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="45"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="49"/>
       <c r="B21" s="29" t="s">
         <v>21</v>
       </c>
@@ -1638,8 +1653,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="45"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="49"/>
       <c r="B22" s="29" t="s">
         <v>22</v>
       </c>
@@ -1650,7 +1665,7 @@
         <v>6</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F22" s="29" t="s">
         <v>6</v>
@@ -1659,8 +1674,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="45"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="49"/>
       <c r="B23" s="29" t="s">
         <v>30</v>
       </c>
@@ -1680,8 +1695,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="45"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="49"/>
       <c r="B24" s="29" t="s">
         <v>29</v>
       </c>
@@ -1701,8 +1716,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="45"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="49"/>
       <c r="B25" s="29" t="s">
         <v>28</v>
       </c>
@@ -1722,8 +1737,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="45"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="49"/>
       <c r="B26" s="29" t="s">
         <v>27</v>
       </c>
@@ -1743,8 +1758,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="45"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="49"/>
       <c r="B27" s="29" t="s">
         <v>26</v>
       </c>
@@ -1764,19 +1779,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="45"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="49"/>
       <c r="B28" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="29" t="s">
         <v>5</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F28" s="29" t="s">
         <v>6</v>
@@ -1785,8 +1800,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="45"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="49"/>
       <c r="B29" s="29" t="s">
         <v>24</v>
       </c>
@@ -1806,8 +1821,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="45"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="49"/>
       <c r="B30" s="29" t="s">
         <v>23</v>
       </c>
@@ -1827,8 +1842,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="45"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="49"/>
       <c r="B31" s="29" t="s">
         <v>84</v>
       </c>
@@ -1848,8 +1863,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="46"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="50"/>
       <c r="B32" s="28" t="s">
         <v>85</v>
       </c>
@@ -1869,8 +1884,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="45" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="49" t="s">
         <v>60</v>
       </c>
       <c r="B33" s="29" t="s">
@@ -1892,8 +1907,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="45"/>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="49"/>
       <c r="B34" s="29" t="s">
         <v>32</v>
       </c>
@@ -1913,7 +1928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="s">
         <v>61</v>
       </c>
@@ -1936,8 +1951,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="45" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="49" t="s">
         <v>62</v>
       </c>
       <c r="B36" s="29" t="s">
@@ -1958,9 +1973,14 @@
       <c r="G36" s="18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="45"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="49"/>
       <c r="B37" s="29" t="s">
         <v>38</v>
       </c>
@@ -1980,8 +2000,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="45"/>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="49"/>
       <c r="B38" s="29" t="s">
         <v>39</v>
       </c>
@@ -2001,8 +2021,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="45"/>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="49"/>
       <c r="B39" s="29" t="s">
         <v>40</v>
       </c>
@@ -2016,14 +2036,14 @@
         <v>5</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="45"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="49"/>
       <c r="B40" s="29" t="s">
         <v>41</v>
       </c>
@@ -2031,7 +2051,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>5</v>
@@ -2043,8 +2063,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="45"/>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="49"/>
       <c r="B41" s="29" t="s">
         <v>42</v>
       </c>
@@ -2052,7 +2072,7 @@
         <v>5</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>5</v>
@@ -2064,8 +2084,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="45"/>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="49"/>
       <c r="B42" s="29" t="s">
         <v>43</v>
       </c>
@@ -2073,7 +2093,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>5</v>
@@ -2085,19 +2105,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="45"/>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="49"/>
       <c r="B43" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F43" s="29" t="s">
         <v>6</v>
@@ -2106,29 +2126,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="45"/>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="49"/>
       <c r="B44" s="29" t="s">
         <v>45</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D44" s="29" t="s">
         <v>5</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="45"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="49"/>
       <c r="B45" s="29" t="s">
         <v>46</v>
       </c>
@@ -2148,8 +2168,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="49" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="48" t="s">
         <v>63</v>
       </c>
       <c r="B46" s="27" t="s">
@@ -2170,9 +2190,14 @@
       <c r="G46" s="38" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="45"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="49"/>
       <c r="B47" s="29" t="s">
         <v>48</v>
       </c>
@@ -2192,8 +2217,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="45"/>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="49"/>
       <c r="B48" s="29" t="s">
         <v>50</v>
       </c>
@@ -2213,8 +2238,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="45"/>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="49"/>
       <c r="B49" s="29" t="s">
         <v>51</v>
       </c>
@@ -2234,8 +2259,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="45"/>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="49"/>
       <c r="B50" s="29" t="s">
         <v>52</v>
       </c>
@@ -2255,8 +2280,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="45"/>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="49"/>
       <c r="B51" s="29" t="s">
         <v>53</v>
       </c>
@@ -2276,8 +2301,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="45"/>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="49"/>
       <c r="B52" s="29" t="s">
         <v>54</v>
       </c>
@@ -2287,18 +2312,18 @@
       <c r="D52" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="10" t="s">
-        <v>5</v>
+      <c r="E52" s="12" t="s">
+        <v>6</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="45"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="49"/>
       <c r="B53" s="29" t="s">
         <v>55</v>
       </c>
@@ -2318,8 +2343,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="46"/>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="50"/>
       <c r="B54" s="28" t="s">
         <v>56</v>
       </c>
@@ -2339,8 +2364,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="20" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="45" t="s">
         <v>64</v>
       </c>
       <c r="B55" s="29" t="s">
@@ -2362,8 +2387,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="49" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="48" t="s">
         <v>65</v>
       </c>
       <c r="B56" s="27" t="s">
@@ -2373,7 +2398,7 @@
         <v>5</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E56" s="22" t="s">
         <v>5</v>
@@ -2384,9 +2409,14 @@
       <c r="G56" s="38" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="45"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="49"/>
       <c r="B57" s="29" t="s">
         <v>13</v>
       </c>
@@ -2394,20 +2424,20 @@
         <v>5</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="45"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="49"/>
       <c r="B58" s="29" t="s">
         <v>7</v>
       </c>
@@ -2427,19 +2457,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="45"/>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="49"/>
       <c r="B59" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="10" t="s">
-        <v>5</v>
+      <c r="C59" s="29" t="s">
+        <v>6</v>
       </c>
       <c r="D59" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="10" t="s">
-        <v>5</v>
+      <c r="E59" s="29" t="s">
+        <v>6</v>
       </c>
       <c r="F59" s="29" t="s">
         <v>6</v>
@@ -2448,8 +2478,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="45"/>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="49"/>
       <c r="B60" s="29" t="s">
         <v>11</v>
       </c>
@@ -2457,20 +2487,20 @@
         <v>5</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F60" s="29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="45"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="49"/>
       <c r="B61" s="29" t="s">
         <v>12</v>
       </c>
@@ -2490,8 +2520,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="45"/>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="49"/>
       <c r="B62" s="29" t="s">
         <v>14</v>
       </c>
@@ -2499,41 +2529,41 @@
         <v>5</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>6</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="46"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="50"/>
       <c r="B63" s="28" t="s">
         <v>10</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D63" s="28" t="s">
         <v>6</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F63" s="28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G63" s="32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="45" t="s">
         <v>68</v>
       </c>
       <c r="B64" s="29" t="s">
@@ -2555,8 +2585,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="49" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="48" t="s">
         <v>66</v>
       </c>
       <c r="B65" s="27" t="s">
@@ -2578,8 +2608,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="45"/>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="49"/>
       <c r="B66" s="29" t="s">
         <v>34</v>
       </c>
@@ -2599,8 +2629,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="46"/>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="50"/>
       <c r="B67" s="28" t="s">
         <v>35</v>
       </c>
@@ -2620,8 +2650,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="45" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="49" t="s">
         <v>67</v>
       </c>
       <c r="B68" s="29" t="s">
@@ -2643,8 +2673,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="45"/>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="49"/>
       <c r="B69" s="29" t="s">
         <v>0</v>
       </c>
@@ -2664,8 +2694,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="46"/>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="50"/>
       <c r="B70" s="28" t="s">
         <v>1</v>
       </c>
@@ -2706,11 +2736,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30220C4D-3284-5347-BC56-189FD80E50EC}">
   <dimension ref="A1:AF283"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
@@ -2724,7 +2754,7 @@
     <col min="10" max="10" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="35" customHeight="1">
+    <row r="1" spans="1:32" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>69</v>
       </c>
@@ -2737,21 +2767,21 @@
       <c r="D1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52" t="s">
+      <c r="F1" s="55"/>
+      <c r="G1" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54" t="s">
+      <c r="H1" s="57"/>
+      <c r="I1" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="51"/>
-    </row>
-    <row r="2" spans="1:32" s="9" customFormat="1">
-      <c r="A2" s="48" t="s">
+      <c r="J1" s="55"/>
+    </row>
+    <row r="2" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="52" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -2767,23 +2797,23 @@
         <v>3998</v>
       </c>
       <c r="F2" s="11">
-        <v>0</v>
-      </c>
-      <c r="G2" s="43">
+        <v>1</v>
+      </c>
+      <c r="G2" s="42">
         <v>4002</v>
       </c>
       <c r="H2" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="11">
         <v>4010</v>
       </c>
       <c r="J2" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" s="9" customFormat="1">
-      <c r="A3" s="48"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="52"/>
       <c r="B3" s="26" t="s">
         <v>71</v>
       </c>
@@ -2797,23 +2827,23 @@
         <v>3163</v>
       </c>
       <c r="F3" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="40">
         <v>3263</v>
       </c>
       <c r="H3" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="11">
         <v>3173</v>
       </c>
       <c r="J3" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" s="9" customFormat="1">
-      <c r="A4" s="48"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="52"/>
       <c r="B4" s="26" t="s">
         <v>72</v>
       </c>
@@ -2827,26 +2857,26 @@
         <v>3877</v>
       </c>
       <c r="F4" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="40">
         <v>3972</v>
       </c>
       <c r="H4" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="11">
         <v>3972</v>
       </c>
       <c r="J4" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="8"/>
       <c r="W4" s="8"/>
       <c r="AF4" s="8"/>
     </row>
-    <row r="5" spans="1:32" s="9" customFormat="1">
-      <c r="A5" s="48"/>
+    <row r="5" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="52"/>
       <c r="B5" s="26" t="s">
         <v>73</v>
       </c>
@@ -2860,23 +2890,23 @@
         <v>5102</v>
       </c>
       <c r="F5" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="40">
         <v>5273</v>
       </c>
       <c r="H5" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="11">
         <v>5273</v>
       </c>
       <c r="J5" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" s="9" customFormat="1">
-      <c r="A6" s="48"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="52"/>
       <c r="B6" s="26" t="s">
         <v>74</v>
       </c>
@@ -2890,23 +2920,23 @@
         <v>8817</v>
       </c>
       <c r="F6" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="40">
         <v>8917</v>
       </c>
       <c r="H6" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="11">
         <v>8917</v>
       </c>
       <c r="J6" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" s="9" customFormat="1">
-      <c r="A7" s="48"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="52"/>
       <c r="B7" s="26" t="s">
         <v>75</v>
       </c>
@@ -2920,24 +2950,24 @@
         <v>10199</v>
       </c>
       <c r="F7" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="40">
         <v>10172</v>
       </c>
       <c r="H7" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="11">
         <v>10172</v>
       </c>
       <c r="J7" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:32" s="9" customFormat="1">
-      <c r="A8" s="48"/>
+    <row r="8" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="52"/>
       <c r="B8" s="26" t="s">
         <v>76</v>
       </c>
@@ -2951,23 +2981,23 @@
         <v>16833</v>
       </c>
       <c r="F8" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="40">
         <v>16798</v>
       </c>
       <c r="H8" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="11">
         <v>16798</v>
       </c>
       <c r="J8" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" s="9" customFormat="1">
-      <c r="A9" s="48"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="52"/>
       <c r="B9" s="26" t="s">
         <v>77</v>
       </c>
@@ -2999,8 +3029,8 @@
       <c r="W9" s="8"/>
       <c r="AF9" s="8"/>
     </row>
-    <row r="10" spans="1:32" s="9" customFormat="1">
-      <c r="A10" s="48"/>
+    <row r="10" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="52"/>
       <c r="B10" s="26" t="s">
         <v>78</v>
       </c>
@@ -3029,8 +3059,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" s="9" customFormat="1">
-      <c r="A11" s="48"/>
+    <row r="11" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="52"/>
       <c r="B11" s="26" t="s">
         <v>79</v>
       </c>
@@ -3059,8 +3089,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32" s="9" customFormat="1">
-      <c r="A12" s="48"/>
+    <row r="12" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="52"/>
       <c r="B12" s="26" t="s">
         <v>80</v>
       </c>
@@ -3092,8 +3122,8 @@
       <c r="W12" s="8"/>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:32" s="9" customFormat="1">
-      <c r="A13" s="48"/>
+    <row r="13" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="52"/>
       <c r="B13" s="26" t="s">
         <v>81</v>
       </c>
@@ -3112,7 +3142,7 @@
       <c r="G13" s="41">
         <v>16899</v>
       </c>
-      <c r="H13" s="44">
+      <c r="H13" s="43">
         <v>0</v>
       </c>
       <c r="I13" s="11">
@@ -3122,8 +3152,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
-      <c r="A14" s="49" t="s">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A14" s="48" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -3154,8 +3184,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
-      <c r="A15" s="46"/>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A15" s="50"/>
       <c r="B15" s="28" t="s">
         <v>84</v>
       </c>
@@ -3184,15 +3214,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
-      <c r="A16" s="45" t="s">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A16" s="49" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="10">
-        <v>300000</v>
+        <v>65524</v>
       </c>
       <c r="D16" s="29">
         <v>9765</v>
@@ -3201,23 +3231,23 @@
         <v>300000</v>
       </c>
       <c r="F16" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G16" s="20">
         <v>300000</v>
       </c>
       <c r="H16" s="18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I16" s="10">
         <v>300000</v>
       </c>
       <c r="J16" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="45"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="49"/>
       <c r="B17" s="29" t="s">
         <v>17</v>
       </c>
@@ -3228,31 +3258,31 @@
         <v>5337</v>
       </c>
       <c r="E17" s="10">
-        <v>49843</v>
+        <v>1398</v>
       </c>
       <c r="F17" s="10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G17" s="20">
-        <v>44843</v>
+        <v>1398</v>
       </c>
       <c r="H17" s="18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I17" s="10">
-        <v>19843</v>
+        <v>1398</v>
       </c>
       <c r="J17" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="49"/>
       <c r="B18" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="10">
-        <v>300000</v>
+        <v>13252</v>
       </c>
       <c r="D18" s="29">
         <v>300000</v>
@@ -3261,23 +3291,23 @@
         <v>300000</v>
       </c>
       <c r="F18" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G18" s="20">
         <v>300000</v>
       </c>
       <c r="H18" s="18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I18" s="10">
         <v>300000</v>
       </c>
       <c r="J18" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="45"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="49"/>
       <c r="B19" s="29" t="s">
         <v>19</v>
       </c>
@@ -3288,26 +3318,26 @@
         <v>9585</v>
       </c>
       <c r="E19" s="10">
-        <v>5792</v>
+        <v>300000</v>
       </c>
       <c r="F19" s="10">
-        <v>0</v>
-      </c>
-      <c r="G19" s="20">
-        <v>5462</v>
+        <v>3</v>
+      </c>
+      <c r="G19" s="45">
+        <v>300000</v>
       </c>
       <c r="H19" s="18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19" s="10">
-        <v>5391</v>
+        <v>300000</v>
       </c>
       <c r="J19" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="45"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="49"/>
       <c r="B20" s="29" t="s">
         <v>20</v>
       </c>
@@ -3336,13 +3366,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="45"/>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="49"/>
       <c r="B21" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="10">
-        <v>300000</v>
+      <c r="C21" s="29">
+        <v>1892</v>
       </c>
       <c r="D21" s="29">
         <v>300000</v>
@@ -3351,23 +3381,23 @@
         <v>300000</v>
       </c>
       <c r="F21" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21" s="20">
         <v>300000</v>
       </c>
       <c r="H21" s="18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I21" s="10">
         <v>300000</v>
       </c>
       <c r="J21" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="45"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="49"/>
       <c r="B22" s="29" t="s">
         <v>22</v>
       </c>
@@ -3377,8 +3407,8 @@
       <c r="D22" s="29">
         <v>18014</v>
       </c>
-      <c r="E22" s="10">
-        <v>300000</v>
+      <c r="E22" s="45">
+        <v>82229</v>
       </c>
       <c r="F22" s="10">
         <v>4</v>
@@ -3387,7 +3417,7 @@
         <v>22427</v>
       </c>
       <c r="H22" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="10">
         <v>2425</v>
@@ -3396,13 +3426,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="45"/>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="49"/>
       <c r="B23" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="10">
-        <v>300000</v>
+      <c r="C23" s="11">
+        <v>5145</v>
       </c>
       <c r="D23" s="29">
         <v>300000</v>
@@ -3411,23 +3441,23 @@
         <v>300000</v>
       </c>
       <c r="F23" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23" s="20">
         <v>300000</v>
       </c>
       <c r="H23" s="18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23" s="10">
         <v>300000</v>
       </c>
       <c r="J23" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="45"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="49"/>
       <c r="B24" s="29" t="s">
         <v>29</v>
       </c>
@@ -3438,12 +3468,12 @@
         <v>7561</v>
       </c>
       <c r="E24" s="10">
-        <v>3016</v>
+        <v>1866</v>
       </c>
       <c r="F24" s="10">
         <v>0</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="45">
         <v>2216</v>
       </c>
       <c r="H24" s="18">
@@ -3456,8 +3486,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="17" customHeight="1">
-      <c r="A25" s="45"/>
+    <row r="25" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="49"/>
       <c r="B25" s="29" t="s">
         <v>28</v>
       </c>
@@ -3471,7 +3501,7 @@
         <v>42538</v>
       </c>
       <c r="F25" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25" s="20">
         <v>32538</v>
@@ -3486,8 +3516,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="17" customHeight="1">
-      <c r="A26" s="45"/>
+    <row r="26" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="49"/>
       <c r="B26" s="29" t="s">
         <v>27</v>
       </c>
@@ -3516,8 +3546,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="17" customHeight="1">
-      <c r="A27" s="45"/>
+    <row r="27" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="49"/>
       <c r="B27" s="29" t="s">
         <v>26</v>
       </c>
@@ -3531,23 +3561,23 @@
         <v>300000</v>
       </c>
       <c r="F27" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G27" s="20">
         <v>300000</v>
       </c>
       <c r="H27" s="18">
-        <v>0</v>
-      </c>
-      <c r="I27" s="10">
-        <v>8353</v>
+        <v>4</v>
+      </c>
+      <c r="I27" s="47">
+        <v>300000</v>
       </c>
       <c r="J27" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="17" customHeight="1">
-      <c r="A28" s="45"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="49"/>
       <c r="B28" s="29" t="s">
         <v>25</v>
       </c>
@@ -3558,26 +3588,26 @@
         <v>13892</v>
       </c>
       <c r="E28" s="10">
-        <v>2575</v>
+        <v>300000</v>
       </c>
       <c r="F28" s="10">
         <v>3</v>
       </c>
       <c r="G28" s="20">
-        <v>2639</v>
+        <v>24639</v>
       </c>
       <c r="H28" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I28" s="10">
-        <v>2838</v>
+        <v>12838</v>
       </c>
       <c r="J28" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="17" customHeight="1">
-      <c r="A29" s="45"/>
+    <row r="29" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="49"/>
       <c r="B29" s="29" t="s">
         <v>24</v>
       </c>
@@ -3606,8 +3636,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="17" customHeight="1">
-      <c r="A30" s="45"/>
+    <row r="30" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="49"/>
       <c r="B30" s="29" t="s">
         <v>23</v>
       </c>
@@ -3636,8 +3666,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="17" customHeight="1">
-      <c r="A31" s="45"/>
+    <row r="31" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="49"/>
       <c r="B31" s="29" t="s">
         <v>84</v>
       </c>
@@ -3651,7 +3681,7 @@
         <v>2679</v>
       </c>
       <c r="F31" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="20">
         <v>2589</v>
@@ -3663,11 +3693,11 @@
         <v>2579</v>
       </c>
       <c r="J31" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="17" customHeight="1">
-      <c r="A32" s="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="49"/>
       <c r="B32" s="29" t="s">
         <v>85</v>
       </c>
@@ -3696,8 +3726,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="3" customFormat="1">
-      <c r="A33" s="49" t="s">
+    <row r="33" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="48" t="s">
         <v>60</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -3707,7 +3737,7 @@
         <v>300000</v>
       </c>
       <c r="D33" s="27">
-        <v>300000</v>
+        <v>3343</v>
       </c>
       <c r="E33" s="22">
         <v>300000</v>
@@ -3728,37 +3758,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="3" customFormat="1">
-      <c r="A34" s="46"/>
+    <row r="34" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="50"/>
       <c r="B34" s="28" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="21">
-        <v>1808</v>
+        <v>2808</v>
       </c>
       <c r="D34" s="28">
         <v>4188</v>
       </c>
       <c r="E34" s="21">
-        <v>9723</v>
+        <v>6723</v>
       </c>
       <c r="F34" s="21">
         <v>5</v>
       </c>
       <c r="G34" s="35">
-        <v>8483</v>
+        <v>5483</v>
       </c>
       <c r="H34" s="32">
         <v>5</v>
       </c>
       <c r="I34" s="21">
-        <v>7483</v>
+        <v>4483</v>
       </c>
       <c r="J34" s="32">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="16" customHeight="1">
+    <row r="35" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>61</v>
       </c>
@@ -3790,40 +3820,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="3" customFormat="1">
-      <c r="A36" s="49" t="s">
+    <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="48" t="s">
         <v>62</v>
       </c>
       <c r="B36" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="22">
-        <v>300000</v>
-      </c>
-      <c r="D36" s="27">
+      <c r="C36" s="27">
         <v>34343</v>
       </c>
-      <c r="E36" s="22">
+      <c r="D36" s="22">
+        <v>300000</v>
+      </c>
+      <c r="E36" s="44">
         <v>300000</v>
       </c>
       <c r="F36" s="22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G36" s="37">
         <v>300000</v>
       </c>
       <c r="H36" s="38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I36" s="22">
         <v>300000</v>
       </c>
       <c r="J36" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="3" customFormat="1">
-      <c r="A37" s="45"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="49"/>
       <c r="B37" s="29" t="s">
         <v>38</v>
       </c>
@@ -3831,59 +3861,59 @@
         <v>13252</v>
       </c>
       <c r="D37" s="29">
-        <v>23422</v>
-      </c>
-      <c r="E37" s="10">
+        <v>300000</v>
+      </c>
+      <c r="E37" s="45">
         <v>300000</v>
       </c>
       <c r="F37" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G37" s="20">
         <v>300000</v>
       </c>
       <c r="H37" s="18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37" s="10">
         <v>300000</v>
       </c>
       <c r="J37" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="3" customFormat="1">
-      <c r="A38" s="45"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="49"/>
       <c r="B38" s="29" t="s">
         <v>39</v>
       </c>
       <c r="C38" s="10">
-        <v>300000</v>
+        <v>34232</v>
       </c>
       <c r="D38" s="29">
-        <v>300000</v>
+        <v>85932</v>
       </c>
       <c r="E38" s="10">
         <v>300000</v>
       </c>
       <c r="F38" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G38" s="20">
         <v>300000</v>
       </c>
       <c r="H38" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" s="10">
         <v>300000</v>
       </c>
       <c r="J38" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="3" customFormat="1">
-      <c r="A39" s="45"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="49"/>
       <c r="B39" s="29" t="s">
         <v>40</v>
       </c>
@@ -3899,21 +3929,21 @@
       <c r="F39" s="10">
         <v>4</v>
       </c>
-      <c r="G39" s="20">
-        <v>100082</v>
+      <c r="G39" s="45">
+        <v>300000</v>
       </c>
       <c r="H39" s="18">
         <v>3</v>
       </c>
       <c r="I39" s="10">
-        <v>91082</v>
+        <v>300000</v>
       </c>
       <c r="J39" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="3" customFormat="1">
-      <c r="A40" s="45"/>
+    <row r="40" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="49"/>
       <c r="B40" s="29" t="s">
         <v>41</v>
       </c>
@@ -3942,8 +3972,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="3" customFormat="1">
-      <c r="A41" s="45"/>
+    <row r="41" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="49"/>
       <c r="B41" s="29" t="s">
         <v>42</v>
       </c>
@@ -3951,7 +3981,7 @@
         <v>126334</v>
       </c>
       <c r="D41" s="29">
-        <v>300000</v>
+        <v>22838</v>
       </c>
       <c r="E41" s="10">
         <v>300000</v>
@@ -3972,8 +4002,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="3" customFormat="1">
-      <c r="A42" s="45"/>
+    <row r="42" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="49"/>
       <c r="B42" s="29" t="s">
         <v>43</v>
       </c>
@@ -3981,29 +4011,29 @@
         <v>73738</v>
       </c>
       <c r="D42" s="29">
-        <v>300000</v>
+        <v>38368</v>
       </c>
       <c r="E42" s="10">
         <v>300000</v>
       </c>
       <c r="F42" s="10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G42" s="20">
         <v>300000</v>
       </c>
       <c r="H42" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I42" s="10">
         <v>300000</v>
       </c>
       <c r="J42" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="3" customFormat="1">
-      <c r="A43" s="45"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="49"/>
       <c r="B43" s="29" t="s">
         <v>44</v>
       </c>
@@ -4032,8 +4062,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="3" customFormat="1">
-      <c r="A44" s="45"/>
+    <row r="44" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="49"/>
       <c r="B44" s="29" t="s">
         <v>45</v>
       </c>
@@ -4044,63 +4074,63 @@
         <v>64323</v>
       </c>
       <c r="E44" s="10">
-        <v>300000</v>
+        <v>61772</v>
       </c>
       <c r="F44" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G44" s="20">
-        <v>300000</v>
+        <v>62534</v>
       </c>
       <c r="H44" s="18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" s="10">
-        <v>94352</v>
+        <v>61524</v>
       </c>
       <c r="J44" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="3" customFormat="1">
-      <c r="A45" s="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="50"/>
       <c r="B45" s="28" t="s">
         <v>46</v>
       </c>
       <c r="C45" s="21">
-        <v>300000</v>
+        <v>3232</v>
       </c>
       <c r="D45" s="28">
-        <v>300000</v>
+        <v>23442</v>
       </c>
       <c r="E45" s="21">
         <v>300000</v>
       </c>
       <c r="F45" s="21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G45" s="35">
         <v>300000</v>
       </c>
       <c r="H45" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I45" s="21">
         <v>300000</v>
       </c>
       <c r="J45" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="49" t="s">
         <v>63</v>
       </c>
       <c r="B46" s="29" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="10">
-        <v>300000</v>
+        <v>32322</v>
       </c>
       <c r="D46" s="29">
         <v>300000</v>
@@ -4109,23 +4139,23 @@
         <v>300000</v>
       </c>
       <c r="F46" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G46" s="20">
         <v>300000</v>
       </c>
       <c r="H46" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" s="10">
         <v>300000</v>
       </c>
       <c r="J46" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="45"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="49"/>
       <c r="B47" s="29" t="s">
         <v>48</v>
       </c>
@@ -4133,59 +4163,59 @@
         <v>34232</v>
       </c>
       <c r="D47" s="29">
-        <v>300000</v>
+        <v>93049</v>
       </c>
       <c r="E47" s="10">
         <v>300000</v>
       </c>
       <c r="F47" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G47" s="20">
         <v>300000</v>
       </c>
       <c r="H47" s="18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I47" s="10">
         <v>300000</v>
       </c>
       <c r="J47" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="45"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="49"/>
       <c r="B48" s="29" t="s">
         <v>50</v>
       </c>
       <c r="C48" s="10">
-        <v>300000</v>
+        <v>67263</v>
       </c>
       <c r="D48" s="29">
-        <v>300000</v>
+        <v>85932</v>
       </c>
       <c r="E48" s="10">
         <v>300000</v>
       </c>
       <c r="F48" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G48" s="20">
         <v>300000</v>
       </c>
       <c r="H48" s="18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I48" s="10">
         <v>300000</v>
       </c>
       <c r="J48" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="45"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="49"/>
       <c r="B49" s="29" t="s">
         <v>51</v>
       </c>
@@ -4199,23 +4229,23 @@
         <v>4231</v>
       </c>
       <c r="F49" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" s="20">
         <v>4230</v>
       </c>
       <c r="H49" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" s="10">
         <v>4344</v>
       </c>
       <c r="J49" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="49"/>
       <c r="B50" s="29" t="s">
         <v>52</v>
       </c>
@@ -4229,23 +4259,23 @@
         <v>300000</v>
       </c>
       <c r="F50" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G50" s="20">
         <v>300000</v>
       </c>
       <c r="H50" s="18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I50" s="10">
         <v>300000</v>
       </c>
       <c r="J50" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="45"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="49"/>
       <c r="B51" s="29" t="s">
         <v>53</v>
       </c>
@@ -4256,26 +4286,26 @@
         <v>12838</v>
       </c>
       <c r="E51" s="10">
-        <v>12594</v>
+        <v>3434</v>
       </c>
       <c r="F51" s="12">
         <v>0</v>
       </c>
       <c r="G51" s="20">
-        <v>12664</v>
+        <v>3435</v>
       </c>
       <c r="H51" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" s="10">
-        <v>12654</v>
+        <v>3634</v>
       </c>
       <c r="J51" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="49"/>
       <c r="B52" s="29" t="s">
         <v>54</v>
       </c>
@@ -4286,31 +4316,31 @@
         <v>93049</v>
       </c>
       <c r="E52" s="10">
-        <v>300000</v>
+        <v>12944</v>
       </c>
       <c r="F52" s="10">
+        <v>4</v>
+      </c>
+      <c r="G52" s="20">
+        <v>12423</v>
+      </c>
+      <c r="H52" s="18">
         <v>3</v>
       </c>
-      <c r="G52" s="20">
-        <v>300000</v>
-      </c>
-      <c r="H52" s="18">
-        <v>2</v>
-      </c>
       <c r="I52" s="10">
-        <v>300000</v>
+        <v>10993</v>
       </c>
       <c r="J52" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="45"/>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="49"/>
       <c r="B53" s="29" t="s">
         <v>55</v>
       </c>
       <c r="C53" s="20">
-        <v>300000</v>
+        <v>4454</v>
       </c>
       <c r="D53" s="29">
         <v>47483</v>
@@ -4319,52 +4349,52 @@
         <v>300000</v>
       </c>
       <c r="F53" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G53" s="20">
         <v>300000</v>
       </c>
       <c r="H53" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" s="10">
         <v>300000</v>
       </c>
       <c r="J53" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="45"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="49"/>
       <c r="B54" s="29" t="s">
         <v>56</v>
       </c>
       <c r="C54" s="10">
-        <v>25283</v>
+        <v>5283</v>
       </c>
       <c r="D54" s="29">
         <v>25898</v>
       </c>
       <c r="E54" s="10">
-        <v>30283</v>
+        <v>5028</v>
       </c>
       <c r="F54" s="10">
         <v>0</v>
       </c>
       <c r="G54" s="20">
-        <v>28783</v>
+        <v>5783</v>
       </c>
       <c r="H54" s="18">
         <v>0</v>
       </c>
       <c r="I54" s="10">
-        <v>27283</v>
+        <v>5283</v>
       </c>
       <c r="J54" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="23" t="s">
         <v>64</v>
       </c>
@@ -4396,8 +4426,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="45" t="s">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="49" t="s">
         <v>65</v>
       </c>
       <c r="B56" s="29" t="s">
@@ -4413,113 +4443,113 @@
         <v>300000</v>
       </c>
       <c r="F56" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G56" s="20">
         <v>300000</v>
       </c>
       <c r="H56" s="18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I56" s="10">
         <v>300000</v>
       </c>
       <c r="J56" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="45"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="49"/>
       <c r="B57" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C57" s="10">
-        <v>300000</v>
+        <v>2045</v>
       </c>
       <c r="D57" s="29">
-        <v>300000</v>
+        <v>98069</v>
       </c>
       <c r="E57" s="10">
         <v>300000</v>
       </c>
       <c r="F57" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G57" s="20">
         <v>300000</v>
       </c>
       <c r="H57" s="18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I57" s="10">
         <v>300000</v>
       </c>
       <c r="J57" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="45"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="49"/>
       <c r="B58" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="10">
-        <v>300000</v>
+      <c r="C58" s="29">
+        <v>6610</v>
       </c>
       <c r="D58" s="29">
-        <v>6610</v>
+        <v>300000</v>
       </c>
       <c r="E58" s="10">
         <v>300000</v>
       </c>
       <c r="F58" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G58" s="20">
         <v>300000</v>
       </c>
       <c r="H58" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I58" s="10">
         <v>300000</v>
       </c>
       <c r="J58" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="45"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="49"/>
       <c r="B59" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="10">
-        <v>16874</v>
+      <c r="C59" s="47">
+        <v>29763</v>
       </c>
       <c r="D59" s="29">
         <v>38022</v>
       </c>
-      <c r="E59" s="10">
-        <v>300000</v>
+      <c r="E59" s="45">
+        <v>27981</v>
       </c>
       <c r="F59" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G59" s="20">
         <v>26981</v>
       </c>
       <c r="H59" s="18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I59" s="10">
         <v>27981</v>
       </c>
       <c r="J59" s="18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="49"/>
       <c r="B60" s="29" t="s">
         <v>11</v>
       </c>
@@ -4530,31 +4560,31 @@
         <v>18368</v>
       </c>
       <c r="E60" s="10">
-        <v>71064</v>
+        <v>300000</v>
       </c>
       <c r="F60" s="10">
-        <v>5</v>
-      </c>
-      <c r="G60" s="20">
-        <v>72064</v>
+        <v>4</v>
+      </c>
+      <c r="G60" s="45">
+        <v>300000</v>
       </c>
       <c r="H60" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I60" s="10">
-        <v>71064</v>
+        <v>300000</v>
       </c>
       <c r="J60" s="18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="45"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="49"/>
       <c r="B61" s="29" t="s">
         <v>12</v>
       </c>
       <c r="C61" s="10">
-        <v>4719</v>
+        <v>1719</v>
       </c>
       <c r="D61" s="29">
         <v>2564</v>
@@ -4578,8 +4608,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="45"/>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="49"/>
       <c r="B62" s="29" t="s">
         <v>14</v>
       </c>
@@ -4590,26 +4620,26 @@
         <v>4076</v>
       </c>
       <c r="E62" s="10">
-        <v>300000</v>
+        <v>12944</v>
       </c>
       <c r="F62" s="10">
-        <v>0</v>
-      </c>
-      <c r="G62" s="20">
-        <v>300000</v>
+        <v>4</v>
+      </c>
+      <c r="G62" s="45">
+        <v>12423</v>
       </c>
       <c r="H62" s="18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I62" s="10">
-        <v>300000</v>
+        <v>10993</v>
       </c>
       <c r="J62" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="46"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="50"/>
       <c r="B63" s="28" t="s">
         <v>10</v>
       </c>
@@ -4619,26 +4649,26 @@
       <c r="D63" s="28">
         <v>35941</v>
       </c>
-      <c r="E63" s="42">
-        <v>49719</v>
+      <c r="E63" s="21">
+        <v>300000</v>
       </c>
       <c r="F63" s="21">
-        <v>7</v>
-      </c>
-      <c r="G63" s="35">
-        <v>49719</v>
+        <v>5</v>
+      </c>
+      <c r="G63" s="46">
+        <v>300000</v>
       </c>
       <c r="H63" s="32">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I63" s="21">
-        <v>28719</v>
+        <v>300000</v>
       </c>
       <c r="J63" s="32">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="7" customFormat="1">
+    <row r="64" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
         <v>68</v>
       </c>
@@ -4655,30 +4685,30 @@
         <v>300000</v>
       </c>
       <c r="F64" s="10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G64" s="20">
         <v>300000</v>
       </c>
       <c r="H64" s="18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I64" s="10">
         <v>300000</v>
       </c>
       <c r="J64" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="3" customFormat="1">
-      <c r="A65" s="49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="48" t="s">
         <v>66</v>
       </c>
       <c r="B65" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="20">
-        <v>300000</v>
+      <c r="C65" s="27">
+        <v>20393</v>
       </c>
       <c r="D65" s="27">
         <v>76207</v>
@@ -4687,23 +4717,23 @@
         <v>300000</v>
       </c>
       <c r="F65" s="22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G65" s="37">
         <v>300000</v>
       </c>
       <c r="H65" s="38">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I65" s="22">
         <v>300000</v>
       </c>
       <c r="J65" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="3" customFormat="1">
-      <c r="A66" s="45"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="49"/>
       <c r="B66" s="29" t="s">
         <v>34</v>
       </c>
@@ -4732,8 +4762,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="3" customFormat="1">
-      <c r="A67" s="46"/>
+    <row r="67" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="50"/>
       <c r="B67" s="28" t="s">
         <v>35</v>
       </c>
@@ -4762,15 +4792,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="45" t="s">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="49" t="s">
         <v>67</v>
       </c>
       <c r="B68" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="10">
-        <v>300000</v>
+        <v>1995</v>
       </c>
       <c r="D68" s="29">
         <v>2839</v>
@@ -4779,28 +4809,28 @@
         <v>300000</v>
       </c>
       <c r="F68" s="10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G68" s="20">
         <v>300000</v>
       </c>
       <c r="H68" s="18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I68" s="10">
         <v>300000</v>
       </c>
       <c r="J68" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="20" customHeight="1">
-      <c r="A69" s="45"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="49"/>
       <c r="B69" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C69" s="20">
-        <v>300000</v>
+      <c r="C69" s="10">
+        <v>3236</v>
       </c>
       <c r="D69" s="29">
         <v>98069</v>
@@ -4809,23 +4839,23 @@
         <v>300000</v>
       </c>
       <c r="F69" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G69" s="20">
         <v>300000</v>
       </c>
       <c r="H69" s="18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I69" s="10">
         <v>300000</v>
       </c>
       <c r="J69" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="20" customHeight="1">
-      <c r="A70" s="46"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="50"/>
       <c r="B70" s="28" t="s">
         <v>1</v>
       </c>
@@ -4854,7 +4884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="3" customFormat="1">
+    <row r="71" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="8"/>
@@ -4866,7 +4896,7 @@
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
     </row>
-    <row r="72" spans="1:10" s="3" customFormat="1">
+    <row r="72" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="8"/>
@@ -4878,7 +4908,7 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -4890,7 +4920,7 @@
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -4902,7 +4932,7 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -4910,7 +4940,7 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -4922,7 +4952,7 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -4934,7 +4964,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="2"/>
@@ -4946,7 +4976,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="2"/>
@@ -4958,7 +4988,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="2"/>
@@ -4970,22 +5000,22 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="2"/>
-      <c r="D81" s="55"/>
-      <c r="E81" s="55"/>
-      <c r="F81" s="55"/>
+      <c r="D81" s="53"/>
+      <c r="E81" s="53"/>
+      <c r="F81" s="53"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
-      <c r="C82" s="55"/>
+      <c r="C82" s="53"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -4994,10 +5024,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
-      <c r="C83" s="55"/>
+      <c r="C83" s="53"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -5006,10 +5036,10 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
-      <c r="C84" s="55"/>
+      <c r="C84" s="53"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -5018,10 +5048,10 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
-      <c r="C85" s="55"/>
+      <c r="C85" s="53"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -5030,7 +5060,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="2"/>
@@ -5042,7 +5072,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -5054,7 +5084,7 @@
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -5066,7 +5096,7 @@
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -5078,7 +5108,7 @@
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -5090,7 +5120,7 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -5102,7 +5132,7 @@
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -5114,7 +5144,7 @@
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -5126,7 +5156,7 @@
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -5138,7 +5168,7 @@
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -5150,7 +5180,7 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -5162,7 +5192,7 @@
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -5174,7 +5204,7 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -5186,7 +5216,7 @@
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -5198,7 +5228,7 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -5210,7 +5240,7 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -5222,7 +5252,7 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -5234,7 +5264,7 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -5246,7 +5276,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -5258,7 +5288,7 @@
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -5270,7 +5300,7 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -5282,7 +5312,7 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -5294,7 +5324,7 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -5306,7 +5336,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -5318,7 +5348,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -5330,7 +5360,7 @@
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -5342,7 +5372,7 @@
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -5354,7 +5384,7 @@
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -5366,7 +5396,7 @@
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -5378,7 +5408,7 @@
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -5390,7 +5420,7 @@
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -5402,7 +5432,7 @@
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -5414,7 +5444,7 @@
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -5426,7 +5456,7 @@
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -5438,7 +5468,7 @@
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -5450,7 +5480,7 @@
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -5462,7 +5492,7 @@
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -5474,7 +5504,7 @@
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -5486,7 +5516,7 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -5498,7 +5528,7 @@
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -5510,7 +5540,7 @@
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -5522,7 +5552,7 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -5534,7 +5564,7 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -5546,7 +5576,7 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -5558,7 +5588,7 @@
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -5570,7 +5600,7 @@
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -5582,7 +5612,7 @@
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -5594,7 +5624,7 @@
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -5606,7 +5636,7 @@
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -5618,7 +5648,7 @@
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -5630,7 +5660,7 @@
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -5642,7 +5672,7 @@
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -5654,7 +5684,7 @@
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -5666,7 +5696,7 @@
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -5678,7 +5708,7 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -5690,7 +5720,7 @@
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -5702,7 +5732,7 @@
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -5714,7 +5744,7 @@
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -5726,7 +5756,7 @@
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -5738,7 +5768,7 @@
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -5750,7 +5780,7 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -5762,7 +5792,7 @@
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -5774,7 +5804,7 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -5786,7 +5816,7 @@
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -5798,7 +5828,7 @@
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -5810,7 +5840,7 @@
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -5822,7 +5852,7 @@
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -5834,7 +5864,7 @@
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -5846,7 +5876,7 @@
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -5858,7 +5888,7 @@
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -5870,7 +5900,7 @@
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -5882,7 +5912,7 @@
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -5894,7 +5924,7 @@
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -5906,7 +5936,7 @@
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -5918,7 +5948,7 @@
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -5930,7 +5960,7 @@
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -5942,7 +5972,7 @@
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -5954,7 +5984,7 @@
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -5966,7 +5996,7 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -5978,7 +6008,7 @@
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -5990,7 +6020,7 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -6002,7 +6032,7 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -6014,7 +6044,7 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -6026,7 +6056,7 @@
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -6038,7 +6068,7 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -6050,7 +6080,7 @@
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -6062,7 +6092,7 @@
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -6074,7 +6104,7 @@
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -6086,7 +6116,7 @@
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -6098,7 +6128,7 @@
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -6110,7 +6140,7 @@
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -6122,7 +6152,7 @@
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -6134,7 +6164,7 @@
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -6146,7 +6176,7 @@
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -6158,7 +6188,7 @@
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -6170,7 +6200,7 @@
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -6182,7 +6212,7 @@
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -6194,7 +6224,7 @@
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -6206,7 +6236,7 @@
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -6218,7 +6248,7 @@
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -6230,7 +6260,7 @@
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -6242,7 +6272,7 @@
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -6254,7 +6284,7 @@
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -6266,7 +6296,7 @@
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -6278,7 +6308,7 @@
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -6290,7 +6320,7 @@
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -6302,7 +6332,7 @@
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -6314,7 +6344,7 @@
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -6326,7 +6356,7 @@
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -6338,7 +6368,7 @@
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -6350,7 +6380,7 @@
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -6362,7 +6392,7 @@
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -6374,7 +6404,7 @@
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -6386,7 +6416,7 @@
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -6398,7 +6428,7 @@
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -6410,7 +6440,7 @@
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -6422,7 +6452,7 @@
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -6434,7 +6464,7 @@
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -6446,7 +6476,7 @@
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -6458,7 +6488,7 @@
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -6470,7 +6500,7 @@
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -6482,7 +6512,7 @@
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -6494,7 +6524,7 @@
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -6506,7 +6536,7 @@
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -6518,7 +6548,7 @@
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
     </row>
-    <row r="210" spans="1:10">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -6530,7 +6560,7 @@
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -6542,7 +6572,7 @@
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
     </row>
-    <row r="212" spans="1:10">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -6554,7 +6584,7 @@
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -6566,7 +6596,7 @@
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="3"/>
@@ -6578,7 +6608,7 @@
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="3"/>
@@ -6590,7 +6620,7 @@
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="3"/>
@@ -6602,7 +6632,7 @@
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
     </row>
-    <row r="217" spans="1:10">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="3"/>
@@ -6614,7 +6644,7 @@
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
     </row>
-    <row r="218" spans="1:10" ht="17" thickBot="1">
+    <row r="218" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="3"/>
@@ -6626,7 +6656,7 @@
       <c r="I218" s="6"/>
       <c r="J218" s="6"/>
     </row>
-    <row r="219" spans="1:10" ht="17" thickBot="1">
+    <row r="219" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="3"/>
@@ -6636,291 +6666,291 @@
       <c r="G219" s="6"/>
       <c r="H219" s="6"/>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="G220" s="3"/>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="G221" s="3"/>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="G222" s="3"/>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="G223" s="3"/>
     </row>
-    <row r="224" spans="1:10" ht="17" thickBot="1">
+    <row r="224" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="5"/>
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
       <c r="G224" s="3"/>
     </row>
-    <row r="225" spans="1:7" ht="17" thickBot="1">
+    <row r="225" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A225" s="5"/>
       <c r="B225" s="4"/>
       <c r="D225" s="3"/>
       <c r="G225" s="3"/>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="3"/>
       <c r="B226" s="4"/>
       <c r="D226" s="3"/>
       <c r="G226" s="3"/>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="3"/>
       <c r="B227" s="4"/>
       <c r="D227" s="3"/>
       <c r="G227" s="3"/>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="3"/>
       <c r="B228" s="4"/>
       <c r="D228" s="3"/>
       <c r="G228" s="3"/>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="3"/>
       <c r="B229" s="4"/>
       <c r="D229" s="3"/>
       <c r="G229" s="3"/>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="3"/>
       <c r="B230" s="4"/>
       <c r="D230" s="3"/>
       <c r="G230" s="3"/>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="3"/>
       <c r="B231" s="4"/>
       <c r="D231" s="3"/>
       <c r="G231" s="3"/>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="3"/>
       <c r="B232" s="4"/>
       <c r="D232" s="3"/>
       <c r="G232" s="3"/>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="3"/>
       <c r="B233" s="4"/>
       <c r="D233" s="3"/>
       <c r="G233" s="3"/>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="3"/>
       <c r="B234" s="4"/>
       <c r="D234" s="3"/>
       <c r="G234" s="3"/>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="3"/>
       <c r="B235" s="4"/>
       <c r="D235" s="3"/>
       <c r="G235" s="3"/>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="3"/>
       <c r="B236" s="4"/>
       <c r="D236" s="3"/>
       <c r="G236" s="3"/>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="3"/>
       <c r="B237" s="4"/>
       <c r="D237" s="3"/>
       <c r="G237" s="3"/>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="3"/>
       <c r="B238" s="4"/>
       <c r="D238" s="3"/>
       <c r="G238" s="3"/>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="3"/>
       <c r="B239" s="4"/>
       <c r="D239" s="3"/>
       <c r="G239" s="3"/>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="3"/>
       <c r="B240" s="4"/>
       <c r="D240" s="3"/>
       <c r="G240" s="3"/>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="3"/>
       <c r="B241" s="4"/>
       <c r="D241" s="3"/>
       <c r="G241" s="3"/>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="3"/>
       <c r="B242" s="4"/>
       <c r="D242" s="3"/>
       <c r="G242" s="3"/>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="3"/>
       <c r="B243" s="4"/>
       <c r="D243" s="3"/>
       <c r="G243" s="3"/>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="3"/>
       <c r="B244" s="4"/>
       <c r="D244" s="3"/>
       <c r="G244" s="3"/>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="3"/>
       <c r="B245" s="4"/>
       <c r="D245" s="3"/>
       <c r="G245" s="3"/>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="3"/>
       <c r="B246" s="4"/>
       <c r="D246" s="3"/>
       <c r="G246" s="3"/>
     </row>
-    <row r="247" spans="1:7" ht="17" thickBot="1">
+    <row r="247" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
       <c r="B247" s="4"/>
       <c r="D247" s="3"/>
       <c r="G247" s="6"/>
     </row>
-    <row r="248" spans="1:7" ht="17" thickBot="1">
+    <row r="248" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" s="5"/>
       <c r="D248" s="3"/>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="3"/>
       <c r="D249" s="3"/>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="D250" s="3"/>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="D251" s="3"/>
     </row>
-    <row r="252" spans="1:7" ht="17" thickBot="1">
+    <row r="252" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="D252" s="6"/>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" s="1"/>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
     </row>
-    <row r="280" spans="1:10">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H283">
         <f>(10+5+6+3+2+5+3+3+5)</f>
         <v>42</v>
@@ -6932,6 +6962,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A16:A32"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="D81:F81"/>
     <mergeCell ref="C82:C83"/>
     <mergeCell ref="C84:C85"/>
@@ -6941,12 +6977,6 @@
     <mergeCell ref="A56:A63"/>
     <mergeCell ref="A65:A67"/>
     <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A16:A32"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
